--- a/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_SM_COA_ListView_D1.xlsx
+++ b/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_SM_COA_ListView_D1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\rstars\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\Rstars-Automation\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7A31BA5-7661-472A-9597-47DE45E79534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18F52DEC-103D-41E6-A645-C130A73EEBC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{0846998F-F898-4EBA-A281-F62381AC01CF}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t>Keyword</t>
   </si>
@@ -61,9 +61,6 @@
     <t>getData=WaitForPageLoad</t>
   </si>
   <si>
-    <t>selectByVisibleText</t>
-  </si>
-  <si>
     <t>getData=ProfileType</t>
   </si>
   <si>
@@ -91,16 +88,13 @@
     <t>button_addNewProfile</t>
   </si>
   <si>
-    <t>checkAccessibility</t>
-  </si>
-  <si>
-    <t>TC_SM_COA_ListView_D1</t>
-  </si>
-  <si>
-    <t>ListView- Object Profile</t>
-  </si>
-  <si>
     <t xml:space="preserve"> OBJECT PROFILE </t>
+  </si>
+  <si>
+    <t>object Profile</t>
+  </si>
+  <si>
+    <t>selectByVisibleTextCustom</t>
   </si>
 </sst>
 </file>
@@ -184,15 +178,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -510,7 +501,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -548,7 +539,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>7</v>
@@ -559,25 +550,27 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -588,7 +581,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>7</v>
@@ -599,10 +592,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>7</v>
@@ -630,7 +623,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -643,16 +636,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -660,10 +653,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D2" s="4"/>
     </row>
